--- a/moduls/старый 1С/1С.xlsx
+++ b/moduls/старый 1С/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\старый 1С\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2F853-31E7-40DA-B02F-832C494E429E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E0998-5739-4F1F-9CCE-91BF6EC8FD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,7 +1276,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1897,7 @@
         <v>179</v>
       </c>
       <c r="B56" s="7">
-        <v>1001233296450</v>
+        <v>6450</v>
       </c>
       <c r="C56" t="s">
         <v>180</v>
